--- a/Design/DataTable/UpgradeCategory.xlsx
+++ b/Design/DataTable/UpgradeCategory.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Documents\GitHub\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,63 +19,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워</x:t>
+  </x:si>
   <x:si>
     <x:t>String</x:t>
   </x:si>
   <x:si>
+    <x:t>미사일타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계타워</x:t>
+  </x:si>
+  <x:si>
     <x:t>Card_Num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -182,7 +179,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -265,7 +261,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -300,7 +295,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -345,7 +339,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -389,7 +382,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -474,7 +466,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -495,7 +486,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -526,7 +516,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -834,10 +823,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C16"/>
+  <x:dimension ref="A1:C15"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C1" activeCellId="0" sqref="C1:C16"/>
+      <x:selection activeCell="F13" activeCellId="0" sqref="F13:F13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -849,24 +838,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="16.399999999999999">
       <x:c r="A1" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" ht="16.399999999999999">
       <x:c r="A2" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" ht="16.399999999999999">
@@ -874,7 +863,7 @@
         <x:v>10100</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="2">
         <x:v>23</x:v>
@@ -885,7 +874,7 @@
         <x:v>10200</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>5</x:v>
@@ -896,7 +885,7 @@
         <x:v>10300</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>13</x:v>
@@ -907,7 +896,7 @@
         <x:v>10400</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>13</x:v>
@@ -918,7 +907,7 @@
         <x:v>10500</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="2">
         <x:v>9</x:v>
@@ -929,7 +918,7 @@
         <x:v>10600</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>9</x:v>
@@ -951,10 +940,10 @@
         <x:v>10800</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="2">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3" ht="16.399999999999999">
@@ -962,10 +951,10 @@
         <x:v>10900</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="2">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" ht="16.399999999999999">
@@ -973,10 +962,10 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C12" s="2">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" ht="16.399999999999999">
@@ -984,7 +973,7 @@
         <x:v>11100</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C13" s="2">
         <x:v>5</x:v>
@@ -995,10 +984,10 @@
         <x:v>11200</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="2">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3" ht="16.399999999999999">
@@ -1006,20 +995,9 @@
         <x:v>11300</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C15" s="2">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3" ht="16.399999999999999">
-      <x:c r="A16" s="2">
-        <x:v>11400</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C16" s="2">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/Design/DataTable/UpgradeCategory.xlsx
+++ b/Design/DataTable/UpgradeCategory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Category" sheetId="1" r:id="rId4"/>
@@ -19,57 +19,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+  <x:si>
+    <x:t>대포타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물상자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
   <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>독타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포타워</x:t>
+    <x:t>다이아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워</x:t>
   </x:si>
   <x:si>
     <x:t>적색보석타워</x:t>
   </x:si>
   <x:si>
-    <x:t>녹색보석타워</x:t>
-  </x:si>
-  <x:si>
     <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계타워</x:t>
   </x:si>
   <x:si>
     <x:t>Card_Num</x:t>
@@ -179,6 +203,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -261,6 +286,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -295,6 +321,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -339,6 +366,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -382,6 +410,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -466,6 +495,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -486,6 +516,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -516,6 +547,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -823,10 +855,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C15"/>
+  <x:dimension ref="A1:C23"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F13" activeCellId="0" sqref="F13:F13"/>
+      <x:selection activeCell="D19" activeCellId="0" sqref="D19:D19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -838,24 +870,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="16.399999999999999">
       <x:c r="A1" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" ht="16.399999999999999">
       <x:c r="A2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" ht="16.399999999999999">
@@ -863,7 +895,7 @@
         <x:v>10100</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="2">
         <x:v>23</x:v>
@@ -874,7 +906,7 @@
         <x:v>10200</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>5</x:v>
@@ -885,7 +917,7 @@
         <x:v>10300</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>13</x:v>
@@ -896,7 +928,7 @@
         <x:v>10400</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>13</x:v>
@@ -907,7 +939,7 @@
         <x:v>10500</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="2">
         <x:v>9</x:v>
@@ -918,7 +950,7 @@
         <x:v>10600</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>9</x:v>
@@ -940,7 +972,7 @@
         <x:v>10800</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="2">
         <x:v>9</x:v>
@@ -951,7 +983,7 @@
         <x:v>10900</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="2">
         <x:v>13</x:v>
@@ -962,7 +994,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C12" s="2">
         <x:v>5</x:v>
@@ -973,7 +1005,7 @@
         <x:v>11100</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="2">
         <x:v>5</x:v>
@@ -984,7 +1016,7 @@
         <x:v>11200</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="2">
         <x:v>9</x:v>
@@ -995,10 +1027,98 @@
         <x:v>11300</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="2">
         <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3" ht="16.399999999999999">
+      <x:c r="A16" s="2">
+        <x:v>20100</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C16" s="2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3" ht="16.399999999999999">
+      <x:c r="A17" s="2">
+        <x:v>20200</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C17" s="2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3" ht="16.399999999999999">
+      <x:c r="A18" s="2">
+        <x:v>20300</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C18" s="2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3" ht="16.399999999999999">
+      <x:c r="A19" s="2">
+        <x:v>20400</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3" ht="16.399999999999999">
+      <x:c r="A20" s="2">
+        <x:v>30100</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C20" s="2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3" ht="16.399999999999999">
+      <x:c r="A21" s="2">
+        <x:v>30200</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C21" s="2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3" ht="16.399999999999999">
+      <x:c r="A22" s="2">
+        <x:v>30300</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C22" s="2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3" ht="16.399999999999999">
+      <x:c r="A23" s="2">
+        <x:v>30400</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C23" s="2">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
